--- a/运营/平台运营任务安排.xlsx
+++ b/运营/平台运营任务安排.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -29,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +314,80 @@
 1.群内对用户进行活动说明
 2.与群内用户互动，保持热度
 3.收集用户反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活跃社区，让更多用户参与
+2.刺激用户生产内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.聚合优质内容，提升内容复用率
+2.为优质用户提供曝光机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.维护社区秩序
+2.发现优质内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.填充内容，完成社区冷启动
+2.维持社区内容更新频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提升真实用户成就感
+2.增强用户粘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.维持算法体系
+2.优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.社区发布动态内容的规划（题材、占比）
+2.发现用户喜欢的新题材
+3.拓展爬虫内容的品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.持续优化社区内容体系
+2.维持社区内容调性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.维护老KOL
+2.培育新KOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入外部KOL，扩大端内KOL群体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展商务资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +415,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -346,10 +423,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -456,48 +542,66 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,336 +907,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运营/平台运营任务安排.xlsx
+++ b/运营/平台运营任务安排.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="平台运营任务安排" sheetId="1" r:id="rId1"/>
-    <sheet name="KPI" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="游戏运营" sheetId="3" r:id="rId2"/>
+    <sheet name="社区推广" sheetId="4" r:id="rId3"/>
+    <sheet name="KPI" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -561,6 +562,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -573,6 +583,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -581,27 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
@@ -928,15 +929,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -962,10 +963,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -986,7 +987,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1006,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1025,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1042,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1059,7 @@
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1076,8 +1077,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
@@ -1095,10 +1096,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1118,8 +1119,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1137,10 +1138,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1160,8 +1161,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1181,8 +1182,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1202,8 +1203,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1223,8 +1224,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1244,10 +1245,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1267,8 +1268,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1288,10 +1289,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1327,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1344,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
